--- a/biology/Médecine/Albert_Schatz_(scientifique)/Albert_Schatz_(scientifique).xlsx
+++ b/biology/Médecine/Albert_Schatz_(scientifique)/Albert_Schatz_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Schatz (2 février 1920 - 17 janvier 2005) est le découvreur de la streptomycine[1], le premier antibiotique utilisé dans le traitement de la tuberculose et de nombreuses autres maladies. La découverte de la streptomycine fut cependant seulement accordée à son superviseur, Selman Waksman, qui obtint le prix Nobel de physiologie ou médecine en 1952.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Schatz (2 février 1920 - 17 janvier 2005) est le découvreur de la streptomycine, le premier antibiotique utilisé dans le traitement de la tuberculose et de nombreuses autres maladies. La découverte de la streptomycine fut cependant seulement accordée à son superviseur, Selman Waksman, qui obtint le prix Nobel de physiologie ou médecine en 1952.
 </t>
         </is>
       </c>
